--- a/Psps.Web/Reports/R02.xlsx
+++ b/Psps.Web/Reports/R02.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\PSP.201910\Psps.Web\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SWD_20211215\SRAA Source Code Scanning\PSPS_SourceCode\PSPS_SourceCode\Psps.Web\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4952756-2C45-4CAD-9942-12079BCA56CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E14F858-59D3-4860-B754-34387E1A4B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSP Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Complaint &amp; Enquiry Breakdown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,8 +36,159 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
+    <t>Referral to Police</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convicted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verbal Warning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Written Warning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verbal Advice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Written Advice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complaints &amp; Enquiries Figures (Including Flag Day)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Written Enquiries/ 
+Complaints from General Public</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enquiries/ Complaints from Mass Media</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Written Enquiries/ Complaints from District Council</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Written Enquiries/ Complaints from LegCo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtotal of Enquiries/ Complaints</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case referred to the police</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b/f 2007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c/f 2009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total (2008)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007-2008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report ID: R02</t>
+  </si>
+  <si>
+    <t>RESTRICTED</t>
+  </si>
+  <si>
+    <t>SWD - Public Subscription Permit System</t>
+  </si>
+  <si>
+    <t>Report generated by: APMLF1 at 10:30, 17/2/2015</t>
+  </si>
+  <si>
+    <t>Report Input Parameters</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>TWFD</t>
+  </si>
+  <si>
+    <t>RFD</t>
+  </si>
+  <si>
+    <t>2011-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of </t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>Permits Issued</t>
+  </si>
+  <si>
+    <t>Applications Not Issued With Permit</t>
+  </si>
+  <si>
+    <t>Total Net Proceeds ($M)</t>
+  </si>
+  <si>
+    <t>Written Enquiries/ Complaints from other Depts / Authorities</t>
+  </si>
+  <si>
+    <t>Telephone Enquiries/ 
+Complaints from General Public</t>
+  </si>
+  <si>
+    <t>Enquiries/ Complaints from 1823</t>
+  </si>
+  <si>
+    <t>Report Year:{0}</t>
+  </si>
+  <si>
+    <t>Result not available</t>
+  </si>
+  <si>
+    <t>Total Gross Proceeds ($M)</t>
+  </si>
+  <si>
+    <t>NFA (i.e. No Further Action)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enquiries/ Complaints from Unclassified</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enquiries/ Complaints from Police</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Amendment</t>
+  </si>
+  <si>
+    <t>SSAF</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
     <r>
-      <t>Statistical Summary of Public Subscription Permit (Including Flag Day)
+      <t>Summary Statistics of PSP
 (</t>
     </r>
     <r>
@@ -77,167 +234,16 @@
     </r>
   </si>
   <si>
-    <t>Referral to Police</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convicted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verbal Warning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Written Warning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verbal Advice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Written Advice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complaints &amp; Enquiries Figures (Including Flag Day)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Written Enquiries/ 
-Complaints from General Public</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enquiries/ Complaints from Mass Media</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Written Enquiries/ Complaints from District Council</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Written Enquiries/ Complaints from LegCo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subtotal of Enquiries/ Complaints</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case referred to the police</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>b/f 2007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>c/f 2009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total (2008)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007-2008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Report ID: R02</t>
-  </si>
-  <si>
-    <t>Report Name: Statistical Summary of Public Subscription Permit (Including Flag Day)Statistical Summary</t>
-  </si>
-  <si>
-    <t>RESTRICTED</t>
-  </si>
-  <si>
-    <t>SWD - Public Subscription Permit System</t>
-  </si>
-  <si>
-    <t>Report generated by: APMLF1 at 10:30, 17/2/2015</t>
-  </si>
-  <si>
-    <t>Report Input Parameters</t>
-  </si>
-  <si>
-    <t>PSP</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>TWFD</t>
-  </si>
-  <si>
-    <t>RFD</t>
-  </si>
-  <si>
-    <t>2011-2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of </t>
-  </si>
-  <si>
-    <t>Applications</t>
-  </si>
-  <si>
-    <t>Permits Issued</t>
-  </si>
-  <si>
-    <t>Applications Not Issued With Permit</t>
-  </si>
-  <si>
-    <t>Events</t>
-  </si>
-  <si>
-    <t>Total Net Proceeds ($M)</t>
-  </si>
-  <si>
-    <t>Written Enquiries/ Complaints from other Depts / Authorities</t>
-  </si>
-  <si>
-    <t>Telephone Enquiries/ 
-Complaints from General Public</t>
-  </si>
-  <si>
-    <t>Enquiries/ Complaints from 1823</t>
-  </si>
-  <si>
-    <t>Report Year:{0}</t>
-  </si>
-  <si>
-    <t>Result not available</t>
-  </si>
-  <si>
-    <t>Total Gross Proceeds ($M)</t>
-  </si>
-  <si>
-    <t>NFA (i.e. No Further Action)</t>
-  </si>
-  <si>
-    <t>Cases Referred to Police (Including Flag Day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enquiries/ Complaints from Unclassified</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enquiries/ Complaints from Police</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Amendment</t>
-  </si>
-  <si>
-    <t>SSAF</t>
-  </si>
-  <si>
-    <t>Parent</t>
+    <t>Events Held</t>
+  </si>
+  <si>
+    <t>Cases Referred to Police</t>
+  </si>
+  <si>
+    <t>Report Name: Statistical Summary of PSP</t>
+  </si>
+  <si>
+    <t>GCFA</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,10 +915,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -921,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -930,19 +936,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -951,13 +954,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -966,13 +969,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,8 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,9 +1127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1165,9 +1167,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1200,26 +1202,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1252,26 +1237,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1451,7 +1419,7 @@
       <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1464,196 +1432,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.799999999999997">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6">
+      <c r="A3" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6">
+      <c r="A4" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6">
+      <c r="A5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="15.6">
+      <c r="A6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.6">
-      <c r="A4" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="23" t="s">
+    <row r="8" spans="1:10" ht="15.6">
+      <c r="A8" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="55.2" customHeight="1" thickBot="1">
+      <c r="B10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A12" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="23" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A13" s="61"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="55.2" customHeight="1" thickBot="1">
-      <c r="B10" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A12" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="51" t="s">
+      <c r="D13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="26" t="s">
+      <c r="E13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A14" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A14" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="46">
+      <c r="B14" s="51"/>
+      <c r="C14" s="44">
         <f>C15+D15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="46">
+      <c r="D14" s="45"/>
+      <c r="E14" s="44">
         <f>E15+F15</f>
         <v>0</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="42"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="39"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:10" ht="16.8" thickBot="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="55" t="str">
+      <c r="A16" s="62"/>
+      <c r="B16" s="53" t="str">
         <f>"Total: " &amp; (B14+C14+E14)</f>
         <v>Total: 0</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A17" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="46">
+      <c r="A17" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="44">
         <f>C18+D18</f>
         <v>0</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="46">
+      <c r="D17" s="45"/>
+      <c r="E17" s="44">
         <f>E18+F18</f>
         <v>0</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:7" ht="16.8" thickBot="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="55" t="str">
+      <c r="A19" s="62"/>
+      <c r="B19" s="53" t="str">
         <f>"Total: " &amp; (B17+C17+E17)</f>
         <v>Total: 0</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="39"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A20" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="46">
+      <c r="A20" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="44">
         <f>C14-C17</f>
         <v>0</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="46">
+      <c r="D20" s="45"/>
+      <c r="E20" s="44">
         <f>E14-E17</f>
         <v>0</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="1">
         <f>C15-C18</f>
         <v>0</v>
@@ -1662,7 +1630,7 @@
         <f>D15-D18</f>
         <v>0</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="40">
         <f>E15-E18</f>
         <v>0</v>
       </c>
@@ -1670,218 +1638,214 @@
         <f>F15-F18</f>
         <v>0</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="16.8" thickBot="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="58" t="str">
+      <c r="A22" s="63"/>
+      <c r="B22" s="56" t="str">
         <f>"Total: " &amp; (B20+C20+E20)</f>
         <v>Total: 0</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A23" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="46">
+      <c r="A23" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="44">
         <f>C24+D24</f>
         <v>0</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="46">
+      <c r="D23" s="45"/>
+      <c r="E23" s="44">
         <f>E24+F24</f>
         <v>0</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="16.8" thickBot="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="55" t="str">
+      <c r="A25" s="64"/>
+      <c r="B25" s="53" t="str">
         <f>"Total: " &amp; (B23+C23+E23)</f>
         <v>Total: 0</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="39"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A26" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="46">
+      <c r="A26" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="44">
         <f>C27+D27</f>
         <v>0</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="61">
+      <c r="D26" s="45"/>
+      <c r="E26" s="59">
         <f>E27+F27</f>
         <v>0</v>
       </c>
-      <c r="F26" s="47"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="39"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="16.8" thickBot="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="55" t="str">
+      <c r="A28" s="67"/>
+      <c r="B28" s="53" t="str">
         <f>"Total: " &amp; (B26+C26+E26)</f>
         <v>Total: 0</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="39"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A29" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="46">
+      <c r="A29" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="44">
         <f>C30+D30</f>
         <v>0</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="46">
+      <c r="D29" s="45"/>
+      <c r="E29" s="44">
         <f>E30+F30</f>
         <v>0</v>
       </c>
-      <c r="F29" s="47"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="1:7" ht="16.2" thickBot="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="42"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="39"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" ht="16.8" thickBot="1">
-      <c r="A31" s="69"/>
-      <c r="B31" s="58" t="str">
+      <c r="A31" s="67"/>
+      <c r="B31" s="56" t="str">
         <f>"Total: " &amp; (B29+C29+E29)</f>
         <v>Total: 0</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1"/>
     <row r="36" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="67">
+      <c r="A36" s="16"/>
+      <c r="B36" s="65">
         <v>2011</v>
       </c>
-      <c r="C36" s="68"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:10" ht="16.2" thickTop="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="14" t="s">
-        <v>42</v>
+      <c r="B37" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.6">
+      <c r="A39" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.6">
-      <c r="A39" s="11" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" ht="31.2">
+      <c r="A40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.6">
+      <c r="A41" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" ht="31.2">
-      <c r="A40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="11" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.6">
+      <c r="A42" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.6">
-      <c r="A42" s="11" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.6">
+      <c r="A43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.6">
-      <c r="A43" s="11" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.6">
+      <c r="A44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.6">
-      <c r="A44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:10" ht="31.8" thickBot="1">
-      <c r="A45" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="12"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1894,15 +1858,15 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="3"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="3"/>
@@ -1918,15 +1882,15 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="3"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -1991,398 +1955,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" ht="93.6">
+      <c r="A3" s="28"/>
+      <c r="B3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-    </row>
-    <row r="3" spans="1:12" ht="93.6">
-      <c r="A3" s="29"/>
-      <c r="B3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="37" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="15.6">
+      <c r="A4" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.6">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.6">
+      <c r="A5" s="30">
+        <v>39448</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32">
+        <f>SUM(B5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6">
+      <c r="A6" s="30">
+        <v>39479</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="32">
+        <f t="shared" ref="K6:K16" si="0">SUM(B6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.6">
+      <c r="A7" s="30">
+        <v>39508</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.6">
+      <c r="A8" s="30">
+        <v>39539</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.6">
+      <c r="A9" s="30">
+        <v>39569</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.6">
+      <c r="A10" s="30">
+        <v>39600</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.6">
+      <c r="A11" s="30">
+        <v>39630</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.6">
+      <c r="A12" s="30">
+        <v>39661</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.6">
+      <c r="A13" s="30">
+        <v>39692</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.6">
+      <c r="A14" s="30">
+        <v>39722</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.6">
+      <c r="A15" s="30">
+        <v>39753</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.6">
+      <c r="A16" s="30">
+        <v>39783</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.6">
+      <c r="A17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.6">
-      <c r="A5" s="31">
-        <v>39448</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33">
-        <f>SUM(B5:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.6">
-      <c r="A6" s="31">
-        <v>39479</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="33">
-        <f t="shared" ref="K6:K16" si="0">SUM(B6:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.6">
-      <c r="A7" s="31">
-        <v>39508</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6">
-      <c r="A8" s="31">
-        <v>39539</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.6">
-      <c r="A9" s="31">
-        <v>39569</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="29"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.6">
-      <c r="A10" s="31">
-        <v>39600</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.6">
-      <c r="A11" s="31">
-        <v>39630</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.6">
-      <c r="A12" s="31">
-        <v>39661</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.6">
-      <c r="A13" s="31">
-        <v>39692</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.6">
-      <c r="A14" s="31">
-        <v>39722</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.6">
-      <c r="A15" s="31">
-        <v>39753</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.6">
-      <c r="A16" s="31">
-        <v>39783</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.6">
-      <c r="A17" s="30" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="B18" s="34">
+        <f>SUM(B5:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="34">
+        <f t="shared" ref="C18:L18" si="1">SUM(C5:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="34">
+        <f>SUM(I5:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="37">
+        <f>SUM(J5:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="32">
+        <f>SUM(B18:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="35">
-        <f>SUM(B5:B16)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="35">
-        <f t="shared" ref="C18:L18" si="1">SUM(C5:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
-        <f>SUM(I5:I16)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="38">
-        <f>SUM(J5:J16)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="33">
-        <f>SUM(B18:J18)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35">
         <f>SUM(B19:J19)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="36"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickTop="1"/>
   </sheetData>
